--- a/499/CFA/DATAVS.xlsx
+++ b/499/CFA/DATAVS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://webmailbyui-my.sharepoint.com/personal/ramirez_byui_edu/Documents/0 2025 Winter/499 ECON/CFA report/fa_research/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\uni_data\499\CFA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="212" documentId="8_{E030DABF-3EF4-4606-9A8A-E60EA55430BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70D7CF18-EF86-40E0-88BD-85423DEBFF5D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D7F03C-49CE-4616-81A7-766289E0EFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{4E990CFD-8140-4738-A799-51BF1238A3D9}"/>
+    <workbookView xWindow="-4860" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{4E990CFD-8140-4738-A799-51BF1238A3D9}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="9" r:id="rId1"/>
@@ -419,9 +419,6 @@
     <t>42_WK</t>
   </si>
   <si>
-    <t>43_WK</t>
-  </si>
-  <si>
     <t>44_WK</t>
   </si>
   <si>
@@ -2040,6 +2037,9 @@
   </si>
   <si>
     <t>93Other non-current assets_MARA</t>
+  </si>
+  <si>
+    <t>43debt_to_assets_WK</t>
   </si>
 </sst>
 </file>
@@ -2051,7 +2051,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2075,18 +2075,6 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
-      <color indexed="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color indexed="9"/>
       <name val="Arial"/>
@@ -2104,15 +2092,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2133,34 +2114,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2209,58 +2173,49 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4"/>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="5">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3"/>
+    <xf numFmtId="166" fontId="5" fillId="3" borderId="4">
       <alignment horizontal="right"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="3">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="3">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="4">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="4">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="5">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="5">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="6">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="6">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="7"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="7"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="5" xfId="8">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="5" fillId="3" borderId="4" xfId="8">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -2292,10 +2247,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2617,7 +2568,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2EFFBD6-5010-42B8-A66E-D91DF49E5B8E}">
   <dimension ref="A1:VP42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AS1" sqref="AS1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2634,7 +2587,7 @@
     <col min="113" max="115" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:588" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:588" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>83</v>
       </c>
@@ -2768,1627 +2721,1627 @@
         <v>126</v>
       </c>
       <c r="AS1" t="s">
+        <v>667</v>
+      </c>
+      <c r="AT1" t="s">
         <v>127</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>128</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>129</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>130</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>131</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>132</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>133</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>134</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>135</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>136</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>137</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>138</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>139</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>140</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>141</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>142</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>143</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>144</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>145</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>146</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>147</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>148</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>149</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>150</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>151</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>152</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>153</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>154</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>155</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>156</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>157</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BY1" t="s">
         <v>158</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BZ1" t="s">
         <v>159</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CA1" t="s">
         <v>160</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CB1" t="s">
         <v>161</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CC1" t="s">
         <v>162</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CD1" t="s">
         <v>163</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CE1" t="s">
         <v>164</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CF1" t="s">
         <v>165</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CG1" t="s">
         <v>166</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CH1" t="s">
         <v>167</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CI1" t="s">
         <v>168</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CJ1" t="s">
         <v>169</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CK1" t="s">
         <v>170</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CL1" t="s">
         <v>171</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CM1" t="s">
         <v>172</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CN1" t="s">
         <v>173</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CO1" t="s">
         <v>174</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CP1" t="s">
         <v>175</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CQ1" t="s">
         <v>176</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CR1" t="s">
         <v>177</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CS1" t="s">
         <v>178</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CT1" t="s">
         <v>179</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CU1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="CU1" s="1" t="s">
+      <c r="CV1" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="CV1" s="3" t="s">
+      <c r="CW1" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="CW1" s="5" t="s">
+      <c r="CX1" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="CX1" s="5" t="s">
+      <c r="CY1" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="CY1" s="5" t="s">
+      <c r="CZ1" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="CZ1" s="5" t="s">
+      <c r="DA1" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="DA1" s="5" t="s">
+      <c r="DB1" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="DB1" s="5" t="s">
+      <c r="DC1" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="DC1" s="5" t="s">
+      <c r="DD1" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="DD1" s="5" t="s">
+      <c r="DE1" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="DE1" s="5" t="s">
+      <c r="DF1" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="DF1" s="5" t="s">
+      <c r="DG1" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="DG1" s="5" t="s">
+      <c r="DH1" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="DH1" s="5" t="s">
+      <c r="DI1" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="DI1" s="5" t="s">
+      <c r="DJ1" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="DJ1" s="5" t="s">
+      <c r="DK1" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="DK1" s="5" t="s">
+      <c r="DL1" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="DL1" s="5" t="s">
+      <c r="DM1" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="DM1" s="5" t="s">
+      <c r="DN1" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="DN1" s="5" t="s">
+      <c r="DO1" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="DO1" s="5" t="s">
+      <c r="DP1" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="DP1" s="5" t="s">
+      <c r="DQ1" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="DQ1" s="5" t="s">
+      <c r="DR1" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="DR1" s="5" t="s">
+      <c r="DS1" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="DS1" s="5" t="s">
+      <c r="DT1" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="DT1" s="5" t="s">
+      <c r="DU1" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="DU1" s="5" t="s">
+      <c r="DV1" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="DV1" s="5" t="s">
+      <c r="DW1" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="DW1" s="5" t="s">
+      <c r="DX1" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="DX1" s="5" t="s">
+      <c r="DY1" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="DY1" s="5" t="s">
+      <c r="DZ1" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="DZ1" s="5" t="s">
+      <c r="EA1" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="EA1" s="5" t="s">
+      <c r="EB1" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="EB1" s="5" t="s">
+      <c r="EC1" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="EC1" s="5" t="s">
+      <c r="ED1" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="ED1" s="5" t="s">
+      <c r="EE1" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="EE1" s="5" t="s">
+      <c r="EF1" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="EF1" s="5" t="s">
+      <c r="EG1" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="EG1" s="5" t="s">
+      <c r="EH1" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="EH1" s="5" t="s">
+      <c r="EI1" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="EI1" s="5" t="s">
+      <c r="EJ1" t="s">
         <v>221</v>
       </c>
-      <c r="EJ1" t="s">
+      <c r="EK1" t="s">
         <v>222</v>
       </c>
-      <c r="EK1" t="s">
+      <c r="EL1" t="s">
         <v>223</v>
       </c>
-      <c r="EL1" t="s">
+      <c r="EM1" t="s">
         <v>224</v>
       </c>
-      <c r="EM1" t="s">
+      <c r="EN1" t="s">
         <v>225</v>
       </c>
-      <c r="EN1" t="s">
+      <c r="EO1" t="s">
         <v>226</v>
       </c>
-      <c r="EO1" t="s">
+      <c r="EP1" t="s">
         <v>227</v>
       </c>
-      <c r="EP1" t="s">
+      <c r="EQ1" t="s">
         <v>228</v>
       </c>
-      <c r="EQ1" t="s">
+      <c r="ER1" t="s">
         <v>229</v>
       </c>
-      <c r="ER1" t="s">
+      <c r="ES1" t="s">
         <v>230</v>
       </c>
-      <c r="ES1" t="s">
+      <c r="ET1" t="s">
         <v>231</v>
       </c>
-      <c r="ET1" t="s">
+      <c r="EU1" t="s">
         <v>232</v>
       </c>
-      <c r="EU1" t="s">
+      <c r="EV1" t="s">
         <v>233</v>
       </c>
-      <c r="EV1" t="s">
+      <c r="EW1" t="s">
         <v>234</v>
       </c>
-      <c r="EW1" t="s">
+      <c r="EX1" t="s">
         <v>235</v>
       </c>
-      <c r="EX1" t="s">
+      <c r="EY1" t="s">
         <v>236</v>
       </c>
-      <c r="EY1" t="s">
+      <c r="EZ1" t="s">
         <v>237</v>
       </c>
-      <c r="EZ1" t="s">
+      <c r="FA1" t="s">
         <v>238</v>
       </c>
-      <c r="FA1" t="s">
+      <c r="FB1" t="s">
         <v>239</v>
       </c>
-      <c r="FB1" t="s">
+      <c r="FC1" t="s">
         <v>240</v>
       </c>
-      <c r="FC1" t="s">
+      <c r="FD1" t="s">
         <v>241</v>
       </c>
-      <c r="FD1" t="s">
+      <c r="FE1" t="s">
         <v>242</v>
       </c>
-      <c r="FE1" t="s">
+      <c r="FF1" t="s">
         <v>243</v>
       </c>
-      <c r="FF1" t="s">
+      <c r="FG1" t="s">
         <v>244</v>
       </c>
-      <c r="FG1" t="s">
+      <c r="FH1" t="s">
         <v>245</v>
       </c>
-      <c r="FH1" t="s">
+      <c r="FI1" t="s">
         <v>246</v>
       </c>
-      <c r="FI1" t="s">
+      <c r="FJ1" t="s">
         <v>247</v>
       </c>
-      <c r="FJ1" t="s">
+      <c r="FK1" t="s">
         <v>248</v>
       </c>
-      <c r="FK1" t="s">
+      <c r="FL1" t="s">
         <v>249</v>
       </c>
-      <c r="FL1" t="s">
+      <c r="FM1" t="s">
         <v>250</v>
       </c>
-      <c r="FM1" t="s">
+      <c r="FN1" t="s">
         <v>251</v>
       </c>
-      <c r="FN1" t="s">
+      <c r="FO1" t="s">
         <v>252</v>
       </c>
-      <c r="FO1" t="s">
+      <c r="FP1" t="s">
         <v>253</v>
       </c>
-      <c r="FP1" t="s">
+      <c r="FQ1" t="s">
         <v>254</v>
       </c>
-      <c r="FQ1" t="s">
+      <c r="FR1" t="s">
         <v>255</v>
       </c>
-      <c r="FR1" t="s">
+      <c r="FS1" t="s">
         <v>256</v>
       </c>
-      <c r="FS1" t="s">
+      <c r="FT1" t="s">
         <v>257</v>
       </c>
-      <c r="FT1" t="s">
+      <c r="FU1" t="s">
         <v>258</v>
       </c>
-      <c r="FU1" t="s">
+      <c r="FV1" t="s">
         <v>259</v>
       </c>
-      <c r="FV1" t="s">
+      <c r="FW1" t="s">
         <v>260</v>
       </c>
-      <c r="FW1" t="s">
+      <c r="FX1" t="s">
         <v>261</v>
       </c>
-      <c r="FX1" t="s">
+      <c r="FY1" t="s">
         <v>262</v>
       </c>
-      <c r="FY1" t="s">
+      <c r="FZ1" t="s">
         <v>263</v>
       </c>
-      <c r="FZ1" t="s">
+      <c r="GA1" t="s">
         <v>264</v>
       </c>
-      <c r="GA1" t="s">
+      <c r="GB1" t="s">
         <v>265</v>
       </c>
-      <c r="GB1" t="s">
+      <c r="GC1" t="s">
         <v>266</v>
       </c>
-      <c r="GC1" t="s">
+      <c r="GD1" t="s">
         <v>267</v>
       </c>
-      <c r="GD1" t="s">
+      <c r="GE1" t="s">
         <v>268</v>
       </c>
-      <c r="GE1" t="s">
+      <c r="GF1" t="s">
         <v>269</v>
       </c>
-      <c r="GF1" t="s">
+      <c r="GG1" t="s">
         <v>270</v>
       </c>
-      <c r="GG1" t="s">
+      <c r="GH1" t="s">
         <v>271</v>
       </c>
-      <c r="GH1" t="s">
+      <c r="GI1" t="s">
         <v>272</v>
       </c>
-      <c r="GI1" t="s">
+      <c r="GJ1" t="s">
         <v>273</v>
       </c>
-      <c r="GJ1" t="s">
+      <c r="GK1" t="s">
         <v>274</v>
       </c>
-      <c r="GK1" t="s">
+      <c r="GL1" t="s">
         <v>275</v>
       </c>
-      <c r="GL1" t="s">
+      <c r="GM1" t="s">
         <v>276</v>
       </c>
-      <c r="GM1" t="s">
+      <c r="GN1" t="s">
         <v>277</v>
       </c>
-      <c r="GN1" t="s">
+      <c r="GO1" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="GO1" s="1" t="s">
+      <c r="GP1" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="GP1" s="3" t="s">
+      <c r="GQ1" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="GQ1" s="5" t="s">
+      <c r="GR1" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="GR1" s="5" t="s">
+      <c r="GS1" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="GS1" s="5" t="s">
+      <c r="GT1" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="GT1" s="5" t="s">
+      <c r="GU1" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="GU1" s="5" t="s">
+      <c r="GV1" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="GV1" s="5" t="s">
+      <c r="GW1" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="GW1" s="5" t="s">
+      <c r="GX1" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="GX1" s="5" t="s">
+      <c r="GY1" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="GY1" s="5" t="s">
+      <c r="GZ1" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="GZ1" s="5" t="s">
+      <c r="HA1" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="HA1" s="5" t="s">
+      <c r="HB1" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="HB1" s="5" t="s">
+      <c r="HC1" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="HC1" s="5" t="s">
+      <c r="HD1" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="HD1" s="5" t="s">
+      <c r="HE1" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="HE1" s="5" t="s">
+      <c r="HF1" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="HF1" s="5" t="s">
+      <c r="HG1" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="HG1" s="5" t="s">
+      <c r="HH1" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="HH1" s="5" t="s">
+      <c r="HI1" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="HI1" s="5" t="s">
+      <c r="HJ1" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="HJ1" s="5" t="s">
+      <c r="HK1" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="HK1" s="5" t="s">
+      <c r="HL1" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="HL1" s="5" t="s">
+      <c r="HM1" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="HM1" s="5" t="s">
+      <c r="HN1" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="HN1" s="5" t="s">
+      <c r="HO1" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="HO1" s="5" t="s">
+      <c r="HP1" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="HP1" s="5" t="s">
+      <c r="HQ1" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="HQ1" s="5" t="s">
+      <c r="HR1" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="HR1" s="5" t="s">
+      <c r="HS1" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="HS1" s="5" t="s">
+      <c r="HT1" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="HT1" s="5" t="s">
+      <c r="HU1" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="HU1" s="5" t="s">
+      <c r="HV1" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="HV1" s="5" t="s">
+      <c r="HW1" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="HW1" s="5" t="s">
+      <c r="HX1" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="HX1" s="5" t="s">
+      <c r="HY1" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="HY1" s="5" t="s">
+      <c r="HZ1" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="HZ1" s="5" t="s">
+      <c r="IA1" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="IA1" s="5" t="s">
+      <c r="IB1" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="IB1" s="5" t="s">
+      <c r="IC1" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="IC1" s="5" t="s">
+      <c r="ID1" t="s">
         <v>319</v>
       </c>
-      <c r="ID1" t="s">
+      <c r="IE1" t="s">
         <v>320</v>
       </c>
-      <c r="IE1" t="s">
+      <c r="IF1" t="s">
         <v>321</v>
       </c>
-      <c r="IF1" t="s">
+      <c r="IG1" t="s">
         <v>322</v>
       </c>
-      <c r="IG1" t="s">
+      <c r="IH1" t="s">
         <v>323</v>
       </c>
-      <c r="IH1" t="s">
+      <c r="II1" t="s">
         <v>324</v>
       </c>
-      <c r="II1" t="s">
+      <c r="IJ1" t="s">
         <v>325</v>
       </c>
-      <c r="IJ1" t="s">
+      <c r="IK1" t="s">
         <v>326</v>
       </c>
-      <c r="IK1" t="s">
+      <c r="IL1" t="s">
         <v>327</v>
       </c>
-      <c r="IL1" t="s">
+      <c r="IM1" t="s">
         <v>328</v>
       </c>
-      <c r="IM1" t="s">
+      <c r="IN1" t="s">
         <v>329</v>
       </c>
-      <c r="IN1" t="s">
+      <c r="IO1" t="s">
         <v>330</v>
       </c>
-      <c r="IO1" t="s">
+      <c r="IP1" t="s">
         <v>331</v>
       </c>
-      <c r="IP1" t="s">
+      <c r="IQ1" t="s">
         <v>332</v>
       </c>
-      <c r="IQ1" t="s">
+      <c r="IR1" t="s">
         <v>333</v>
       </c>
-      <c r="IR1" t="s">
+      <c r="IS1" t="s">
         <v>334</v>
       </c>
-      <c r="IS1" t="s">
+      <c r="IT1" t="s">
         <v>335</v>
       </c>
-      <c r="IT1" t="s">
+      <c r="IU1" t="s">
         <v>336</v>
       </c>
-      <c r="IU1" t="s">
+      <c r="IV1" t="s">
         <v>337</v>
       </c>
-      <c r="IV1" t="s">
+      <c r="IW1" t="s">
         <v>338</v>
       </c>
-      <c r="IW1" t="s">
+      <c r="IX1" t="s">
         <v>339</v>
       </c>
-      <c r="IX1" t="s">
+      <c r="IY1" t="s">
         <v>340</v>
       </c>
-      <c r="IY1" t="s">
+      <c r="IZ1" t="s">
         <v>341</v>
       </c>
-      <c r="IZ1" t="s">
+      <c r="JA1" t="s">
         <v>342</v>
       </c>
-      <c r="JA1" t="s">
+      <c r="JB1" t="s">
         <v>343</v>
       </c>
-      <c r="JB1" t="s">
+      <c r="JC1" t="s">
         <v>344</v>
       </c>
-      <c r="JC1" t="s">
+      <c r="JD1" t="s">
         <v>345</v>
       </c>
-      <c r="JD1" t="s">
+      <c r="JE1" t="s">
         <v>346</v>
       </c>
-      <c r="JE1" t="s">
+      <c r="JF1" t="s">
         <v>347</v>
       </c>
-      <c r="JF1" t="s">
+      <c r="JG1" t="s">
         <v>348</v>
       </c>
-      <c r="JG1" t="s">
+      <c r="JH1" t="s">
         <v>349</v>
       </c>
-      <c r="JH1" t="s">
+      <c r="JI1" t="s">
         <v>350</v>
       </c>
-      <c r="JI1" t="s">
+      <c r="JJ1" t="s">
         <v>351</v>
       </c>
-      <c r="JJ1" t="s">
+      <c r="JK1" t="s">
         <v>352</v>
       </c>
-      <c r="JK1" t="s">
+      <c r="JL1" t="s">
         <v>353</v>
       </c>
-      <c r="JL1" t="s">
+      <c r="JM1" t="s">
         <v>354</v>
       </c>
-      <c r="JM1" t="s">
+      <c r="JN1" t="s">
         <v>355</v>
       </c>
-      <c r="JN1" t="s">
+      <c r="JO1" t="s">
         <v>356</v>
       </c>
-      <c r="JO1" t="s">
+      <c r="JP1" t="s">
         <v>357</v>
       </c>
-      <c r="JP1" t="s">
+      <c r="JQ1" t="s">
         <v>358</v>
       </c>
-      <c r="JQ1" t="s">
+      <c r="JR1" t="s">
         <v>359</v>
       </c>
-      <c r="JR1" t="s">
+      <c r="JS1" t="s">
         <v>360</v>
       </c>
-      <c r="JS1" t="s">
+      <c r="JT1" t="s">
         <v>361</v>
       </c>
-      <c r="JT1" t="s">
+      <c r="JU1" t="s">
         <v>362</v>
       </c>
-      <c r="JU1" t="s">
+      <c r="JV1" t="s">
         <v>363</v>
       </c>
-      <c r="JV1" t="s">
+      <c r="JW1" t="s">
         <v>364</v>
       </c>
-      <c r="JW1" t="s">
+      <c r="JX1" t="s">
         <v>365</v>
       </c>
-      <c r="JX1" t="s">
+      <c r="JY1" t="s">
         <v>366</v>
       </c>
-      <c r="JY1" t="s">
+      <c r="JZ1" t="s">
         <v>367</v>
       </c>
-      <c r="JZ1" t="s">
+      <c r="KA1" t="s">
         <v>368</v>
       </c>
-      <c r="KA1" t="s">
+      <c r="KB1" t="s">
         <v>369</v>
       </c>
-      <c r="KB1" t="s">
+      <c r="KC1" t="s">
         <v>370</v>
       </c>
-      <c r="KC1" t="s">
+      <c r="KD1" t="s">
         <v>371</v>
       </c>
-      <c r="KD1" t="s">
+      <c r="KE1" t="s">
         <v>372</v>
       </c>
-      <c r="KE1" t="s">
+      <c r="KF1" t="s">
         <v>373</v>
       </c>
-      <c r="KF1" t="s">
+      <c r="KG1" t="s">
         <v>374</v>
       </c>
-      <c r="KG1" t="s">
+      <c r="KH1" t="s">
         <v>375</v>
       </c>
-      <c r="KH1" t="s">
+      <c r="KI1" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="KI1" s="1" t="s">
+      <c r="KJ1" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="KJ1" s="3" t="s">
+      <c r="KK1" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="KK1" s="5" t="s">
+      <c r="KL1" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="KL1" s="5" t="s">
+      <c r="KM1" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="KM1" s="5" t="s">
+      <c r="KN1" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="KN1" s="5" t="s">
+      <c r="KO1" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="KO1" s="5" t="s">
+      <c r="KP1" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="KP1" s="5" t="s">
+      <c r="KQ1" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="KQ1" s="5" t="s">
+      <c r="KR1" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="KR1" s="5" t="s">
+      <c r="KS1" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="KS1" s="5" t="s">
+      <c r="KT1" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="KT1" s="5" t="s">
+      <c r="KU1" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="KU1" s="5" t="s">
+      <c r="KV1" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="KV1" s="5" t="s">
+      <c r="KW1" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="KW1" s="5" t="s">
+      <c r="KX1" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="KX1" s="5" t="s">
+      <c r="KY1" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="KY1" s="5" t="s">
+      <c r="KZ1" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="KZ1" s="5" t="s">
+      <c r="LA1" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="LA1" s="5" t="s">
+      <c r="LB1" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="LB1" s="5" t="s">
+      <c r="LC1" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="LC1" s="5" t="s">
+      <c r="LD1" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="LD1" s="5" t="s">
+      <c r="LE1" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="LE1" s="5" t="s">
+      <c r="LF1" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="LF1" s="5" t="s">
+      <c r="LG1" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="LG1" s="5" t="s">
+      <c r="LH1" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="LH1" s="5" t="s">
+      <c r="LI1" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="LI1" s="5" t="s">
+      <c r="LJ1" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="LJ1" s="5" t="s">
+      <c r="LK1" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="LK1" s="5" t="s">
+      <c r="LL1" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="LL1" s="5" t="s">
+      <c r="LM1" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="LM1" s="5" t="s">
+      <c r="LN1" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="LN1" s="5" t="s">
+      <c r="LO1" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="LO1" s="5" t="s">
+      <c r="LP1" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="LP1" s="5" t="s">
+      <c r="LQ1" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="LQ1" s="5" t="s">
+      <c r="LR1" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="LR1" s="5" t="s">
+      <c r="LS1" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="LS1" s="5" t="s">
+      <c r="LT1" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="LT1" s="5" t="s">
+      <c r="LU1" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="LU1" s="5" t="s">
+      <c r="LV1" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="LV1" s="5" t="s">
+      <c r="LW1" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="LW1" s="5" t="s">
+      <c r="LX1" t="s">
         <v>417</v>
       </c>
-      <c r="LX1" t="s">
+      <c r="LY1" t="s">
         <v>418</v>
       </c>
-      <c r="LY1" t="s">
+      <c r="LZ1" t="s">
         <v>419</v>
       </c>
-      <c r="LZ1" t="s">
+      <c r="MA1" t="s">
         <v>420</v>
       </c>
-      <c r="MA1" t="s">
+      <c r="MB1" t="s">
         <v>421</v>
       </c>
-      <c r="MB1" t="s">
+      <c r="MC1" t="s">
         <v>422</v>
       </c>
-      <c r="MC1" t="s">
+      <c r="MD1" t="s">
         <v>423</v>
       </c>
-      <c r="MD1" t="s">
+      <c r="ME1" t="s">
         <v>424</v>
       </c>
-      <c r="ME1" t="s">
+      <c r="MF1" t="s">
         <v>425</v>
       </c>
-      <c r="MF1" t="s">
+      <c r="MG1" t="s">
         <v>426</v>
       </c>
-      <c r="MG1" t="s">
+      <c r="MH1" t="s">
         <v>427</v>
       </c>
-      <c r="MH1" t="s">
+      <c r="MI1" t="s">
         <v>428</v>
       </c>
-      <c r="MI1" t="s">
+      <c r="MJ1" t="s">
         <v>429</v>
       </c>
-      <c r="MJ1" t="s">
+      <c r="MK1" t="s">
         <v>430</v>
       </c>
-      <c r="MK1" t="s">
+      <c r="ML1" t="s">
         <v>431</v>
       </c>
-      <c r="ML1" t="s">
+      <c r="MM1" t="s">
         <v>432</v>
       </c>
-      <c r="MM1" t="s">
+      <c r="MN1" t="s">
         <v>433</v>
       </c>
-      <c r="MN1" t="s">
+      <c r="MO1" t="s">
         <v>434</v>
       </c>
-      <c r="MO1" t="s">
+      <c r="MP1" t="s">
         <v>435</v>
       </c>
-      <c r="MP1" t="s">
+      <c r="MQ1" t="s">
         <v>436</v>
       </c>
-      <c r="MQ1" t="s">
+      <c r="MR1" t="s">
         <v>437</v>
       </c>
-      <c r="MR1" t="s">
+      <c r="MS1" t="s">
         <v>438</v>
       </c>
-      <c r="MS1" t="s">
+      <c r="MT1" t="s">
         <v>439</v>
       </c>
-      <c r="MT1" t="s">
+      <c r="MU1" t="s">
         <v>440</v>
       </c>
-      <c r="MU1" t="s">
+      <c r="MV1" t="s">
         <v>441</v>
       </c>
-      <c r="MV1" t="s">
+      <c r="MW1" t="s">
         <v>442</v>
       </c>
-      <c r="MW1" t="s">
+      <c r="MX1" t="s">
         <v>443</v>
       </c>
-      <c r="MX1" t="s">
+      <c r="MY1" t="s">
         <v>444</v>
       </c>
-      <c r="MY1" t="s">
+      <c r="MZ1" t="s">
         <v>445</v>
       </c>
-      <c r="MZ1" t="s">
+      <c r="NA1" t="s">
         <v>446</v>
       </c>
-      <c r="NA1" t="s">
+      <c r="NB1" t="s">
         <v>447</v>
       </c>
-      <c r="NB1" t="s">
+      <c r="NC1" t="s">
         <v>448</v>
       </c>
-      <c r="NC1" t="s">
+      <c r="ND1" t="s">
         <v>449</v>
       </c>
-      <c r="ND1" t="s">
+      <c r="NE1" t="s">
         <v>450</v>
       </c>
-      <c r="NE1" t="s">
+      <c r="NF1" t="s">
         <v>451</v>
       </c>
-      <c r="NF1" t="s">
+      <c r="NG1" t="s">
         <v>452</v>
       </c>
-      <c r="NG1" t="s">
+      <c r="NH1" t="s">
         <v>453</v>
       </c>
-      <c r="NH1" t="s">
+      <c r="NI1" t="s">
         <v>454</v>
       </c>
-      <c r="NI1" t="s">
+      <c r="NJ1" t="s">
         <v>455</v>
       </c>
-      <c r="NJ1" t="s">
+      <c r="NK1" t="s">
         <v>456</v>
       </c>
-      <c r="NK1" t="s">
+      <c r="NL1" t="s">
         <v>457</v>
       </c>
-      <c r="NL1" t="s">
+      <c r="NM1" t="s">
         <v>458</v>
       </c>
-      <c r="NM1" t="s">
+      <c r="NN1" t="s">
         <v>459</v>
       </c>
-      <c r="NN1" t="s">
+      <c r="NO1" t="s">
         <v>460</v>
       </c>
-      <c r="NO1" t="s">
+      <c r="NP1" t="s">
         <v>461</v>
       </c>
-      <c r="NP1" t="s">
+      <c r="NQ1" t="s">
         <v>462</v>
       </c>
-      <c r="NQ1" t="s">
+      <c r="NR1" t="s">
         <v>463</v>
       </c>
-      <c r="NR1" t="s">
+      <c r="NS1" t="s">
         <v>464</v>
       </c>
-      <c r="NS1" t="s">
+      <c r="NT1" t="s">
         <v>465</v>
       </c>
-      <c r="NT1" t="s">
+      <c r="NU1" t="s">
         <v>466</v>
       </c>
-      <c r="NU1" t="s">
+      <c r="NV1" t="s">
         <v>467</v>
       </c>
-      <c r="NV1" t="s">
+      <c r="NW1" t="s">
         <v>468</v>
       </c>
-      <c r="NW1" t="s">
+      <c r="NX1" t="s">
         <v>469</v>
       </c>
-      <c r="NX1" t="s">
+      <c r="NY1" t="s">
         <v>470</v>
       </c>
-      <c r="NY1" t="s">
+      <c r="NZ1" t="s">
         <v>471</v>
       </c>
-      <c r="NZ1" t="s">
+      <c r="OA1" t="s">
         <v>472</v>
       </c>
-      <c r="OA1" t="s">
+      <c r="OB1" t="s">
         <v>473</v>
       </c>
-      <c r="OB1" t="s">
+      <c r="OC1" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="OC1" s="1" t="s">
+      <c r="OD1" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="OD1" s="3" t="s">
+      <c r="OE1" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="OE1" s="5" t="s">
+      <c r="OF1" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="OF1" s="5" t="s">
+      <c r="OG1" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="OG1" s="5" t="s">
+      <c r="OH1" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="OH1" s="5" t="s">
+      <c r="OI1" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="OI1" s="5" t="s">
+      <c r="OJ1" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="OJ1" s="5" t="s">
+      <c r="OK1" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="OK1" s="5" t="s">
+      <c r="OL1" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="OL1" s="5" t="s">
+      <c r="OM1" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="OM1" s="5" t="s">
+      <c r="ON1" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="ON1" s="5" t="s">
+      <c r="OO1" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="OO1" s="5" t="s">
+      <c r="OP1" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="OP1" s="5" t="s">
+      <c r="OQ1" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="OQ1" s="5" t="s">
+      <c r="OR1" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="OR1" s="5" t="s">
+      <c r="OS1" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="OS1" s="5" t="s">
+      <c r="OT1" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="OT1" s="5" t="s">
+      <c r="OU1" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="OU1" s="5" t="s">
+      <c r="OV1" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="OV1" s="5" t="s">
+      <c r="OW1" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="OW1" s="5" t="s">
+      <c r="OX1" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="OX1" s="5" t="s">
+      <c r="OY1" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="OY1" s="5" t="s">
+      <c r="OZ1" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="OZ1" s="5" t="s">
+      <c r="PA1" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="PA1" s="5" t="s">
+      <c r="PB1" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="PB1" s="5" t="s">
+      <c r="PC1" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="PC1" s="5" t="s">
+      <c r="PD1" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="PD1" s="5" t="s">
+      <c r="PE1" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="PE1" s="5" t="s">
+      <c r="PF1" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="PF1" s="5" t="s">
+      <c r="PG1" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="PG1" s="5" t="s">
+      <c r="PH1" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="PH1" s="5" t="s">
+      <c r="PI1" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="PI1" s="5" t="s">
+      <c r="PJ1" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="PJ1" s="5" t="s">
+      <c r="PK1" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="PK1" s="5" t="s">
+      <c r="PL1" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="PL1" s="5" t="s">
+      <c r="PM1" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="PM1" s="5" t="s">
+      <c r="PN1" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="PN1" s="5" t="s">
+      <c r="PO1" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="PO1" s="5" t="s">
+      <c r="PP1" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="PP1" s="5" t="s">
+      <c r="PQ1" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="PQ1" s="5" t="s">
+      <c r="PR1" t="s">
         <v>515</v>
       </c>
-      <c r="PR1" t="s">
+      <c r="PS1" t="s">
         <v>516</v>
       </c>
-      <c r="PS1" t="s">
+      <c r="PT1" t="s">
         <v>517</v>
       </c>
-      <c r="PT1" t="s">
+      <c r="PU1" t="s">
         <v>518</v>
       </c>
-      <c r="PU1" t="s">
+      <c r="PV1" t="s">
         <v>519</v>
       </c>
-      <c r="PV1" t="s">
+      <c r="PW1" t="s">
         <v>520</v>
       </c>
-      <c r="PW1" t="s">
+      <c r="PX1" t="s">
         <v>521</v>
       </c>
-      <c r="PX1" t="s">
+      <c r="PY1" t="s">
         <v>522</v>
       </c>
-      <c r="PY1" t="s">
+      <c r="PZ1" t="s">
         <v>523</v>
       </c>
-      <c r="PZ1" t="s">
+      <c r="QA1" t="s">
         <v>524</v>
       </c>
-      <c r="QA1" t="s">
+      <c r="QB1" t="s">
         <v>525</v>
       </c>
-      <c r="QB1" t="s">
+      <c r="QC1" t="s">
         <v>526</v>
       </c>
-      <c r="QC1" t="s">
+      <c r="QD1" t="s">
         <v>527</v>
       </c>
-      <c r="QD1" t="s">
+      <c r="QE1" t="s">
         <v>528</v>
       </c>
-      <c r="QE1" t="s">
+      <c r="QF1" t="s">
         <v>529</v>
       </c>
-      <c r="QF1" t="s">
+      <c r="QG1" t="s">
         <v>530</v>
       </c>
-      <c r="QG1" t="s">
+      <c r="QH1" t="s">
         <v>531</v>
       </c>
-      <c r="QH1" t="s">
+      <c r="QI1" t="s">
         <v>532</v>
       </c>
-      <c r="QI1" t="s">
+      <c r="QJ1" t="s">
         <v>533</v>
       </c>
-      <c r="QJ1" t="s">
+      <c r="QK1" t="s">
         <v>534</v>
       </c>
-      <c r="QK1" t="s">
+      <c r="QL1" t="s">
         <v>535</v>
       </c>
-      <c r="QL1" t="s">
+      <c r="QM1" t="s">
         <v>536</v>
       </c>
-      <c r="QM1" t="s">
+      <c r="QN1" t="s">
         <v>537</v>
       </c>
-      <c r="QN1" t="s">
+      <c r="QO1" t="s">
         <v>538</v>
       </c>
-      <c r="QO1" t="s">
+      <c r="QP1" t="s">
         <v>539</v>
       </c>
-      <c r="QP1" t="s">
+      <c r="QQ1" t="s">
         <v>540</v>
       </c>
-      <c r="QQ1" t="s">
+      <c r="QR1" t="s">
         <v>541</v>
       </c>
-      <c r="QR1" t="s">
+      <c r="QS1" t="s">
         <v>542</v>
       </c>
-      <c r="QS1" t="s">
+      <c r="QT1" t="s">
         <v>543</v>
       </c>
-      <c r="QT1" t="s">
+      <c r="QU1" t="s">
         <v>544</v>
       </c>
-      <c r="QU1" t="s">
+      <c r="QV1" t="s">
         <v>545</v>
       </c>
-      <c r="QV1" t="s">
+      <c r="QW1" t="s">
         <v>546</v>
       </c>
-      <c r="QW1" t="s">
+      <c r="QX1" t="s">
         <v>547</v>
       </c>
-      <c r="QX1" t="s">
+      <c r="QY1" t="s">
         <v>548</v>
       </c>
-      <c r="QY1" t="s">
+      <c r="QZ1" t="s">
         <v>549</v>
       </c>
-      <c r="QZ1" t="s">
+      <c r="RA1" t="s">
         <v>550</v>
       </c>
-      <c r="RA1" t="s">
+      <c r="RB1" t="s">
         <v>551</v>
       </c>
-      <c r="RB1" t="s">
+      <c r="RC1" t="s">
         <v>552</v>
       </c>
-      <c r="RC1" t="s">
+      <c r="RD1" t="s">
         <v>553</v>
       </c>
-      <c r="RD1" t="s">
+      <c r="RE1" t="s">
         <v>554</v>
       </c>
-      <c r="RE1" t="s">
+      <c r="RF1" t="s">
         <v>555</v>
       </c>
-      <c r="RF1" t="s">
+      <c r="RG1" t="s">
         <v>556</v>
       </c>
-      <c r="RG1" t="s">
+      <c r="RH1" t="s">
         <v>557</v>
       </c>
-      <c r="RH1" t="s">
+      <c r="RI1" t="s">
         <v>558</v>
       </c>
-      <c r="RI1" t="s">
+      <c r="RJ1" t="s">
         <v>559</v>
       </c>
-      <c r="RJ1" t="s">
+      <c r="RK1" t="s">
         <v>560</v>
       </c>
-      <c r="RK1" t="s">
+      <c r="RL1" t="s">
         <v>561</v>
       </c>
-      <c r="RL1" t="s">
+      <c r="RM1" t="s">
         <v>562</v>
       </c>
-      <c r="RM1" t="s">
+      <c r="RN1" t="s">
         <v>563</v>
       </c>
-      <c r="RN1" t="s">
+      <c r="RO1" t="s">
         <v>564</v>
       </c>
-      <c r="RO1" t="s">
+      <c r="RP1" t="s">
         <v>565</v>
       </c>
-      <c r="RP1" t="s">
+      <c r="RQ1" t="s">
         <v>566</v>
       </c>
-      <c r="RQ1" t="s">
+      <c r="RR1" t="s">
         <v>567</v>
       </c>
-      <c r="RR1" t="s">
+      <c r="RS1" t="s">
         <v>568</v>
       </c>
-      <c r="RS1" t="s">
+      <c r="RT1" t="s">
         <v>569</v>
       </c>
-      <c r="RT1" t="s">
+      <c r="RU1" t="s">
         <v>570</v>
       </c>
-      <c r="RU1" t="s">
+      <c r="RV1" t="s">
         <v>571</v>
       </c>
-      <c r="RV1" t="s">
+      <c r="RW1" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="RW1" s="1" t="s">
+      <c r="RX1" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="RX1" s="3" t="s">
+      <c r="RY1" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="RY1" s="5" t="s">
+      <c r="RZ1" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="RZ1" s="5" t="s">
+      <c r="SA1" s="5" t="s">
         <v>576</v>
       </c>
-      <c r="SA1" s="5" t="s">
+      <c r="SB1" s="5" t="s">
         <v>577</v>
       </c>
-      <c r="SB1" s="5" t="s">
+      <c r="SC1" s="5" t="s">
         <v>578</v>
       </c>
-      <c r="SC1" s="5" t="s">
+      <c r="SD1" s="5" t="s">
         <v>579</v>
       </c>
-      <c r="SD1" s="5" t="s">
+      <c r="SE1" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="SE1" s="5" t="s">
+      <c r="SF1" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="SF1" s="5" t="s">
+      <c r="SG1" s="5" t="s">
         <v>582</v>
       </c>
-      <c r="SG1" s="5" t="s">
+      <c r="SH1" s="5" t="s">
         <v>583</v>
       </c>
-      <c r="SH1" s="5" t="s">
+      <c r="SI1" s="5" t="s">
         <v>584</v>
       </c>
-      <c r="SI1" s="5" t="s">
+      <c r="SJ1" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="SJ1" s="5" t="s">
+      <c r="SK1" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="SK1" s="5" t="s">
+      <c r="SL1" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="SL1" s="5" t="s">
+      <c r="SM1" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="SM1" s="5" t="s">
+      <c r="SN1" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="SN1" s="5" t="s">
+      <c r="SO1" s="5" t="s">
         <v>590</v>
       </c>
-      <c r="SO1" s="5" t="s">
+      <c r="SP1" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="SP1" s="5" t="s">
+      <c r="SQ1" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="SQ1" s="5" t="s">
+      <c r="SR1" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="SR1" s="5" t="s">
+      <c r="SS1" s="5" t="s">
         <v>594</v>
       </c>
-      <c r="SS1" s="5" t="s">
+      <c r="ST1" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="ST1" s="5" t="s">
+      <c r="SU1" s="5" t="s">
         <v>596</v>
       </c>
-      <c r="SU1" s="5" t="s">
+      <c r="SV1" s="5" t="s">
         <v>597</v>
       </c>
-      <c r="SV1" s="5" t="s">
+      <c r="SW1" s="5" t="s">
         <v>598</v>
       </c>
-      <c r="SW1" s="5" t="s">
+      <c r="SX1" s="5" t="s">
         <v>599</v>
       </c>
-      <c r="SX1" s="5" t="s">
+      <c r="SY1" s="5" t="s">
         <v>600</v>
       </c>
-      <c r="SY1" s="5" t="s">
+      <c r="SZ1" s="5" t="s">
         <v>601</v>
       </c>
-      <c r="SZ1" s="5" t="s">
+      <c r="TA1" s="5" t="s">
         <v>602</v>
       </c>
-      <c r="TA1" s="5" t="s">
+      <c r="TB1" s="5" t="s">
         <v>603</v>
       </c>
-      <c r="TB1" s="5" t="s">
+      <c r="TC1" s="5" t="s">
         <v>604</v>
       </c>
-      <c r="TC1" s="5" t="s">
+      <c r="TD1" s="5" t="s">
         <v>605</v>
       </c>
-      <c r="TD1" s="5" t="s">
+      <c r="TE1" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="TE1" s="5" t="s">
+      <c r="TF1" s="5" t="s">
         <v>607</v>
       </c>
-      <c r="TF1" s="5" t="s">
+      <c r="TG1" s="5" t="s">
         <v>608</v>
       </c>
-      <c r="TG1" s="5" t="s">
+      <c r="TH1" s="5" t="s">
         <v>609</v>
       </c>
-      <c r="TH1" s="5" t="s">
+      <c r="TI1" s="5" t="s">
         <v>610</v>
       </c>
-      <c r="TI1" s="5" t="s">
+      <c r="TJ1" s="5" t="s">
         <v>611</v>
       </c>
-      <c r="TJ1" s="5" t="s">
+      <c r="TK1" s="5" t="s">
         <v>612</v>
       </c>
-      <c r="TK1" s="5" t="s">
+      <c r="TL1" t="s">
         <v>613</v>
       </c>
-      <c r="TL1" t="s">
+      <c r="TM1" t="s">
         <v>614</v>
       </c>
-      <c r="TM1" t="s">
+      <c r="TN1" t="s">
         <v>615</v>
       </c>
-      <c r="TN1" t="s">
+      <c r="TO1" t="s">
         <v>616</v>
       </c>
-      <c r="TO1" t="s">
+      <c r="TP1" t="s">
         <v>617</v>
       </c>
-      <c r="TP1" t="s">
+      <c r="TQ1" t="s">
         <v>618</v>
       </c>
-      <c r="TQ1" t="s">
+      <c r="TR1" t="s">
         <v>619</v>
       </c>
-      <c r="TR1" t="s">
+      <c r="TS1" t="s">
         <v>620</v>
       </c>
-      <c r="TS1" t="s">
+      <c r="TT1" t="s">
         <v>621</v>
       </c>
-      <c r="TT1" t="s">
+      <c r="TU1" t="s">
         <v>622</v>
       </c>
-      <c r="TU1" t="s">
+      <c r="TV1" t="s">
         <v>623</v>
       </c>
-      <c r="TV1" t="s">
+      <c r="TW1" t="s">
         <v>624</v>
       </c>
-      <c r="TW1" t="s">
+      <c r="TX1" t="s">
         <v>625</v>
       </c>
-      <c r="TX1" t="s">
+      <c r="TY1" t="s">
         <v>626</v>
       </c>
-      <c r="TY1" t="s">
+      <c r="TZ1" t="s">
         <v>627</v>
       </c>
-      <c r="TZ1" t="s">
+      <c r="UA1" t="s">
         <v>628</v>
       </c>
-      <c r="UA1" t="s">
+      <c r="UB1" t="s">
         <v>629</v>
       </c>
-      <c r="UB1" t="s">
+      <c r="UC1" t="s">
         <v>630</v>
       </c>
-      <c r="UC1" t="s">
+      <c r="UD1" t="s">
         <v>631</v>
       </c>
-      <c r="UD1" t="s">
+      <c r="UE1" t="s">
         <v>632</v>
       </c>
-      <c r="UE1" t="s">
+      <c r="UF1" t="s">
         <v>633</v>
       </c>
-      <c r="UF1" t="s">
+      <c r="UG1" t="s">
         <v>634</v>
       </c>
-      <c r="UG1" t="s">
+      <c r="UH1" t="s">
         <v>635</v>
       </c>
-      <c r="UH1" t="s">
+      <c r="UI1" t="s">
         <v>636</v>
       </c>
-      <c r="UI1" t="s">
+      <c r="UJ1" t="s">
         <v>637</v>
       </c>
-      <c r="UJ1" t="s">
+      <c r="UK1" t="s">
         <v>638</v>
       </c>
-      <c r="UK1" t="s">
+      <c r="UL1" t="s">
         <v>639</v>
       </c>
-      <c r="UL1" t="s">
+      <c r="UM1" t="s">
         <v>640</v>
       </c>
-      <c r="UM1" t="s">
+      <c r="UN1" t="s">
         <v>641</v>
       </c>
-      <c r="UN1" t="s">
+      <c r="UO1" t="s">
         <v>642</v>
       </c>
-      <c r="UO1" t="s">
+      <c r="UP1" t="s">
         <v>643</v>
       </c>
-      <c r="UP1" t="s">
+      <c r="UQ1" t="s">
         <v>644</v>
       </c>
-      <c r="UQ1" t="s">
+      <c r="UR1" t="s">
         <v>645</v>
       </c>
-      <c r="UR1" t="s">
+      <c r="US1" t="s">
         <v>646</v>
       </c>
-      <c r="US1" t="s">
+      <c r="UT1" t="s">
         <v>647</v>
       </c>
-      <c r="UT1" t="s">
+      <c r="UU1" t="s">
         <v>648</v>
       </c>
-      <c r="UU1" t="s">
+      <c r="UV1" t="s">
         <v>649</v>
       </c>
-      <c r="UV1" t="s">
+      <c r="UW1" t="s">
         <v>650</v>
       </c>
-      <c r="UW1" t="s">
+      <c r="UX1" t="s">
         <v>651</v>
       </c>
-      <c r="UX1" t="s">
+      <c r="UY1" t="s">
         <v>652</v>
       </c>
-      <c r="UY1" t="s">
+      <c r="UZ1" t="s">
         <v>653</v>
       </c>
-      <c r="UZ1" t="s">
+      <c r="VA1" t="s">
         <v>654</v>
       </c>
-      <c r="VA1" t="s">
+      <c r="VB1" t="s">
         <v>655</v>
       </c>
-      <c r="VB1" t="s">
+      <c r="VC1" t="s">
         <v>656</v>
       </c>
-      <c r="VC1" t="s">
+      <c r="VD1" t="s">
         <v>657</v>
       </c>
-      <c r="VD1" t="s">
+      <c r="VE1" t="s">
         <v>658</v>
       </c>
-      <c r="VE1" t="s">
+      <c r="VF1" t="s">
         <v>659</v>
       </c>
-      <c r="VF1" t="s">
+      <c r="VG1" t="s">
         <v>660</v>
       </c>
-      <c r="VG1" t="s">
+      <c r="VH1" t="s">
         <v>661</v>
       </c>
-      <c r="VH1" t="s">
+      <c r="VI1" t="s">
         <v>662</v>
       </c>
-      <c r="VI1" t="s">
+      <c r="VJ1" t="s">
         <v>663</v>
       </c>
-      <c r="VJ1" t="s">
+      <c r="VK1" t="s">
         <v>664</v>
       </c>
-      <c r="VK1" t="s">
+      <c r="VL1" t="s">
         <v>665</v>
       </c>
-      <c r="VL1" t="s">
+      <c r="VM1" t="s">
         <v>666</v>
-      </c>
-      <c r="VM1" t="s">
-        <v>667</v>
       </c>
       <c r="VN1" t="s">
         <v>30</v>
@@ -4515,6 +4468,9 @@
       <c r="AN2" s="11"/>
       <c r="AO2" s="11">
         <v>99.882099999999994</v>
+      </c>
+      <c r="AS2">
+        <v>0.26783306539438889</v>
       </c>
       <c r="AT2" s="2" t="s">
         <v>62</v>
@@ -6056,6 +6012,9 @@
       <c r="AO3" s="11">
         <v>100.1215</v>
       </c>
+      <c r="AS3">
+        <v>0.25449679508359224</v>
+      </c>
       <c r="AT3" s="2" t="s">
         <v>63</v>
       </c>
@@ -7606,6 +7565,9 @@
       <c r="AO4" s="11">
         <v>100.05029999999999</v>
       </c>
+      <c r="AS4">
+        <v>0.24959677419354839</v>
+      </c>
       <c r="AT4" s="2" t="s">
         <v>64</v>
       </c>
@@ -9160,6 +9122,9 @@
       <c r="AO5" s="11">
         <v>99.983900000000006</v>
       </c>
+      <c r="AS5">
+        <v>0.23692275617637867</v>
+      </c>
       <c r="AT5" s="2" t="s">
         <v>65</v>
       </c>
@@ -10706,6 +10671,9 @@
       <c r="AO6" s="11">
         <v>100.2004</v>
       </c>
+      <c r="AS6">
+        <v>0.26657603011922193</v>
+      </c>
       <c r="AT6" s="2" t="s">
         <v>66</v>
       </c>
@@ -12264,6 +12232,9 @@
       <c r="AO7" s="11">
         <v>100.00409999999999</v>
       </c>
+      <c r="AS7">
+        <v>0.27934080980635068</v>
+      </c>
       <c r="AT7" s="2" t="s">
         <v>67</v>
       </c>
@@ -13820,6 +13791,9 @@
       <c r="AO8" s="11">
         <v>100.0535</v>
       </c>
+      <c r="AS8">
+        <v>0.31122519665645543</v>
+      </c>
       <c r="AT8" s="2" t="s">
         <v>68</v>
       </c>
@@ -15372,6 +15346,9 @@
       <c r="AO9" s="11">
         <v>100.05459999999999</v>
       </c>
+      <c r="AS9">
+        <v>0.32401863870395337</v>
+      </c>
       <c r="AT9" s="2" t="s">
         <v>24</v>
       </c>
@@ -16912,6 +16889,9 @@
       <c r="AO10" s="11">
         <v>100.0371</v>
       </c>
+      <c r="AS10">
+        <v>0.33502596157972286</v>
+      </c>
       <c r="AT10" s="2" t="s">
         <v>25</v>
       </c>
@@ -18466,6 +18446,9 @@
       <c r="AO11" s="11">
         <v>100.09610000000001</v>
       </c>
+      <c r="AS11">
+        <v>0.30976114350197492</v>
+      </c>
       <c r="AT11" s="2" t="s">
         <v>26</v>
       </c>
@@ -20020,6 +20003,9 @@
       <c r="AO12" s="11">
         <v>100.1811</v>
       </c>
+      <c r="AS12">
+        <v>0.29747413072819595</v>
+      </c>
       <c r="AT12" s="2" t="s">
         <v>27</v>
       </c>
@@ -21571,6 +21557,9 @@
       <c r="AN13" s="11"/>
       <c r="AO13" s="11">
         <v>100.1375</v>
+      </c>
+      <c r="AS13">
+        <v>0.287277684430777</v>
       </c>
       <c r="AT13" s="2" t="s">
         <v>28</v>
@@ -23088,6 +23077,9 @@
       <c r="AO14" s="11">
         <v>100.11839999999999</v>
       </c>
+      <c r="AS14">
+        <v>0.24253654058229815</v>
+      </c>
       <c r="AT14" s="2" t="s">
         <v>29</v>
       </c>
@@ -24637,6 +24629,9 @@
       <c r="AN15" s="11"/>
       <c r="AO15" s="11">
         <v>100.0753</v>
+      </c>
+      <c r="AS15">
+        <v>0.24215989520842734</v>
       </c>
       <c r="AT15" s="2" t="s">
         <v>0</v>
@@ -26196,6 +26191,9 @@
       <c r="AO16" s="11">
         <v>100.06529999999999</v>
       </c>
+      <c r="AS16">
+        <v>0.2179717432950192</v>
+      </c>
       <c r="AT16" s="2" t="s">
         <v>1</v>
       </c>
@@ -27759,6 +27757,9 @@
       <c r="AN17" s="11"/>
       <c r="AO17" s="11">
         <v>100.4957</v>
+      </c>
+      <c r="AS17">
+        <v>0.2131876024940397</v>
       </c>
       <c r="AT17" s="2" t="s">
         <v>2</v>
@@ -29308,6 +29309,9 @@
       <c r="AO18" s="11">
         <v>100.5308</v>
       </c>
+      <c r="AS18">
+        <v>0.25218802798490719</v>
+      </c>
       <c r="AT18" s="2" t="s">
         <v>3</v>
       </c>
@@ -30862,6 +30866,9 @@
       <c r="AO19" s="11">
         <v>100.6541</v>
       </c>
+      <c r="AS19">
+        <v>0.23544727875363422</v>
+      </c>
       <c r="AT19" s="2" t="s">
         <v>4</v>
       </c>
@@ -32414,6 +32421,9 @@
       <c r="AO20" s="11">
         <v>100.777</v>
       </c>
+      <c r="AS20">
+        <v>0.553293839278449</v>
+      </c>
       <c r="AT20" s="2" t="s">
         <v>5</v>
       </c>
@@ -33970,6 +33980,9 @@
       <c r="AO21" s="11">
         <v>100.28959999999999</v>
       </c>
+      <c r="AS21">
+        <v>0.54010389915779178</v>
+      </c>
       <c r="AT21" s="2" t="s">
         <v>6</v>
       </c>
@@ -35518,6 +35531,9 @@
       <c r="AO22" s="11">
         <v>100.8229</v>
       </c>
+      <c r="AS22">
+        <v>0.54674887683388318</v>
+      </c>
       <c r="AT22" s="2" t="s">
         <v>7</v>
       </c>
@@ -37081,6 +37097,9 @@
       <c r="AN23" s="11"/>
       <c r="AO23" s="11">
         <v>100.67789999999999</v>
+      </c>
+      <c r="AS23">
+        <v>0.53538497725005996</v>
       </c>
       <c r="AT23" s="2" t="s">
         <v>8</v>
@@ -38647,6 +38666,9 @@
       <c r="AN24" s="11"/>
       <c r="AO24" s="11">
         <v>100.691</v>
+      </c>
+      <c r="AS24">
+        <v>0.51895121759645779</v>
       </c>
       <c r="AT24" s="2" t="s">
         <v>9</v>
@@ -40212,6 +40234,9 @@
       <c r="AO25" s="11">
         <v>99.402299999999997</v>
       </c>
+      <c r="AS25">
+        <v>0.51051193342064982</v>
+      </c>
       <c r="AT25" s="2" t="s">
         <v>10</v>
       </c>
@@ -41756,6 +41781,9 @@
       <c r="AO26" s="11">
         <v>98.033000000000001</v>
       </c>
+      <c r="AS26">
+        <v>0.50829518522125905</v>
+      </c>
       <c r="AT26" s="2" t="s">
         <v>11</v>
       </c>
@@ -43318,6 +43346,9 @@
       <c r="AO27" s="11">
         <v>98.500399999999999</v>
       </c>
+      <c r="AS27">
+        <v>0.48685175711412643</v>
+      </c>
       <c r="AT27" s="2" t="s">
         <v>12</v>
       </c>
@@ -44888,6 +44919,9 @@
       <c r="AO28" s="11">
         <v>95.478200000000001</v>
       </c>
+      <c r="AS28">
+        <v>8.4441126876961994E-2</v>
+      </c>
       <c r="AT28" s="2" t="s">
         <v>13</v>
       </c>
@@ -46459,6 +46493,9 @@
       <c r="AN29" s="11"/>
       <c r="AO29" s="11">
         <v>96.496200000000002</v>
+      </c>
+      <c r="AS29">
+        <v>8.5516657578750224E-2</v>
       </c>
       <c r="AT29" s="2" t="s">
         <v>14</v>
@@ -47992,6 +48029,9 @@
       <c r="AO30" s="11">
         <v>97.745199999999997</v>
       </c>
+      <c r="AS30">
+        <v>0.52485637428024778</v>
+      </c>
       <c r="AT30" s="2" t="s">
         <v>15</v>
       </c>
@@ -49558,6 +49598,9 @@
       <c r="AO31" s="11">
         <v>98.462000000000003</v>
       </c>
+      <c r="AS31">
+        <v>0.51956593945604679</v>
+      </c>
       <c r="AT31" s="2" t="s">
         <v>16</v>
       </c>
@@ -51134,6 +51177,9 @@
       <c r="AO32" s="11">
         <v>100.31399999999999</v>
       </c>
+      <c r="AS32">
+        <v>0.52323028647875391</v>
+      </c>
       <c r="AT32" s="2" t="s">
         <v>17</v>
       </c>
@@ -52709,6 +52755,9 @@
       <c r="AN33" s="11"/>
       <c r="AO33" s="11">
         <v>102.1876</v>
+      </c>
+      <c r="AS33">
+        <v>0.49620189844074092</v>
       </c>
       <c r="AT33" s="2" t="s">
         <v>18</v>
@@ -54246,6 +54295,9 @@
       <c r="AO34" s="11">
         <v>102.2581</v>
       </c>
+      <c r="AS34">
+        <v>0.50384839402355286</v>
+      </c>
       <c r="AT34" s="2" t="s">
         <v>19</v>
       </c>
@@ -55816,6 +55868,9 @@
       <c r="AO35" s="11">
         <v>102.7944</v>
       </c>
+      <c r="AS35">
+        <v>0.48907973687853196</v>
+      </c>
       <c r="AT35" s="2" t="s">
         <v>20</v>
       </c>
@@ -57383,6 +57438,9 @@
       <c r="AN36" s="11"/>
       <c r="AO36" s="11">
         <v>102.2891</v>
+      </c>
+      <c r="AS36">
+        <v>0.71777121434687863</v>
       </c>
       <c r="AT36" s="2" t="s">
         <v>21</v>
@@ -58806,6 +58864,9 @@
       <c r="AO37" s="11">
         <v>102.7615</v>
       </c>
+      <c r="AS37">
+        <v>0.67583643732668242</v>
+      </c>
       <c r="AT37" s="2" t="s">
         <v>22</v>
       </c>
@@ -60366,6 +60427,9 @@
       <c r="AO38" s="11">
         <v>103.9718</v>
       </c>
+      <c r="AS38">
+        <v>0.68067998775276561</v>
+      </c>
       <c r="AT38" s="2" t="s">
         <v>23</v>
       </c>
@@ -61930,6 +61994,9 @@
       <c r="AO39" s="11">
         <v>104.89879999999999</v>
       </c>
+      <c r="AS39">
+        <v>0.65520496278634488</v>
+      </c>
       <c r="AT39" s="2" t="s">
         <v>69</v>
       </c>
@@ -63498,6 +63565,9 @@
       <c r="AO40" s="11">
         <v>110.0819</v>
       </c>
+      <c r="AS40">
+        <v>0.62494873610498847</v>
+      </c>
       <c r="AT40" s="2" t="s">
         <v>70</v>
       </c>
@@ -65075,6 +65145,9 @@
       <c r="AN41" s="11"/>
       <c r="AO41" s="11">
         <v>111.3287</v>
+      </c>
+      <c r="AS41">
+        <v>0.59754952432243624</v>
       </c>
       <c r="AT41" s="2" t="s">
         <v>71</v>

--- a/499/CFA/DATAVS.xlsx
+++ b/499/CFA/DATAVS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\uni_data\499\CFA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A45254C-65A2-41A1-8B37-DF50FBB26FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A61C5CA-E584-452C-8081-839BE5C4AEC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4860" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{4E990CFD-8140-4738-A799-51BF1238A3D9}"/>
+    <workbookView xWindow="-1410" yWindow="-18315" windowWidth="21600" windowHeight="11295" xr2:uid="{4E990CFD-8140-4738-A799-51BF1238A3D9}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="9" r:id="rId1"/>
@@ -2592,8 +2592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2EFFBD6-5010-42B8-A66E-D91DF49E5B8E}">
   <dimension ref="A1:VT42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CF1" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CX2" sqref="CX2"/>
+    <sheetView tabSelected="1" topLeftCell="Q18" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC3" sqref="AC3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2601,6 +2601,8 @@
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="19" max="19" width="10.85546875" customWidth="1"/>
     <col min="24" max="24" width="12.85546875" customWidth="1"/>
+    <col min="27" max="27" width="17.140625" customWidth="1"/>
+    <col min="29" max="29" width="12.85546875" customWidth="1"/>
     <col min="41" max="47" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="53" max="55" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -4473,7 +4475,7 @@
         <v>14.4</v>
       </c>
       <c r="AC2" s="11">
-        <v>0.04</v>
+        <v>40.183520833333333</v>
       </c>
       <c r="AD2" s="11">
         <v>-5.7859999999999996</v>
@@ -6028,7 +6030,7 @@
         <v>13.83</v>
       </c>
       <c r="AC3" s="11">
-        <v>0.04</v>
+        <v>40.189660159074478</v>
       </c>
       <c r="AD3" s="11">
         <v>-9.4740000000000002</v>
@@ -7593,7 +7595,7 @@
         <v>15.19</v>
       </c>
       <c r="AC4" s="11">
-        <v>4.1000000000000002E-2</v>
+        <v>40.631105990783411</v>
       </c>
       <c r="AD4" s="11">
         <v>-13.272</v>
@@ -9162,7 +9164,7 @@
         <v>17.57</v>
       </c>
       <c r="AC5" s="11">
-        <v>4.1000000000000002E-2</v>
+        <v>40.787546955037001</v>
       </c>
       <c r="AD5" s="11">
         <v>-10.741</v>
@@ -10723,7 +10725,7 @@
         <v>11.65</v>
       </c>
       <c r="AC6" s="11">
-        <v>4.1000000000000002E-2</v>
+        <v>40.929922746781116</v>
       </c>
       <c r="AD6" s="11">
         <v>-11.115</v>
@@ -12296,7 +12298,7 @@
         <v>13.66</v>
       </c>
       <c r="AC7" s="11">
-        <v>4.1000000000000002E-2</v>
+        <v>40.969011713030746</v>
       </c>
       <c r="AD7" s="11">
         <v>-10.348000000000001</v>
@@ -13867,7 +13869,7 @@
         <v>18.13</v>
       </c>
       <c r="AC8" s="11">
-        <v>4.1000000000000002E-2</v>
+        <v>41.058709321566468</v>
       </c>
       <c r="AD8" s="11">
         <v>-11.791</v>
@@ -15434,7 +15436,7 @@
         <v>13.65</v>
       </c>
       <c r="AC9" s="11">
-        <v>4.1000000000000002E-2</v>
+        <v>41.21535531135531</v>
       </c>
       <c r="AD9" s="11">
         <v>-6.5039999999999996</v>
@@ -16989,7 +16991,7 @@
         <v>15.65</v>
       </c>
       <c r="AC10" s="11">
-        <v>4.1000000000000002E-2</v>
+        <v>41.265552715654955</v>
       </c>
       <c r="AD10" s="11">
         <v>-5.093</v>
@@ -18558,7 +18560,7 @@
         <v>19.05</v>
       </c>
       <c r="AC11" s="11">
-        <v>4.2000000000000003E-2</v>
+        <v>41.377023622047247</v>
       </c>
       <c r="AD11" s="11">
         <v>-8.9969999999999999</v>
@@ -20127,7 +20129,7 @@
         <v>20.85</v>
       </c>
       <c r="AC12" s="11">
-        <v>4.2000000000000003E-2</v>
+        <v>41.824004796163067</v>
       </c>
       <c r="AD12" s="11">
         <v>-12.928000000000001</v>
@@ -21694,7 +21696,7 @@
         <v>21.4</v>
       </c>
       <c r="AC13" s="11">
-        <v>4.2000000000000003E-2</v>
+        <v>41.928705607476637</v>
       </c>
       <c r="AD13" s="11">
         <v>-13.739000000000001</v>
@@ -23225,7 +23227,7 @@
         <v>23.7</v>
       </c>
       <c r="AC14" s="11">
-        <v>4.2999999999999997E-2</v>
+        <v>42.567620253164563</v>
       </c>
       <c r="AD14" s="11">
         <v>-8.6340000000000003</v>
@@ -24790,7 +24792,7 @@
         <v>24.4</v>
       </c>
       <c r="AC15" s="11">
-        <v>4.2999999999999997E-2</v>
+        <v>42.730377049180326</v>
       </c>
       <c r="AD15" s="11">
         <v>-20.914000000000001</v>
@@ -26363,7 +26365,7 @@
         <v>39.5</v>
       </c>
       <c r="AC16" s="11">
-        <v>4.3999999999999997E-2</v>
+        <v>43.313032911392405</v>
       </c>
       <c r="AD16" s="11">
         <v>-9.5690000000000008</v>
@@ -27942,7 +27944,7 @@
         <v>35.89</v>
       </c>
       <c r="AC17" s="11">
-        <v>4.3999999999999997E-2</v>
+        <v>43.849208693229308</v>
       </c>
       <c r="AD17" s="11">
         <v>-6.89</v>
@@ -29505,7 +29507,7 @@
         <v>50.7</v>
       </c>
       <c r="AC18" s="11">
-        <v>4.4999999999999998E-2</v>
+        <v>44.304692307692306</v>
       </c>
       <c r="AD18" s="11">
         <v>-5.5039999999999996</v>
@@ -31074,7 +31076,7 @@
         <v>58.09</v>
       </c>
       <c r="AC19" s="11">
-        <v>4.5999999999999999E-2</v>
+        <v>45.159526596660356</v>
       </c>
       <c r="AD19" s="11">
         <v>-6.617</v>
@@ -32641,7 +32643,7 @@
         <v>43.83</v>
       </c>
       <c r="AC20" s="11">
-        <v>4.7E-2</v>
+        <v>46.125149441022138</v>
       </c>
       <c r="AD20" s="11">
         <v>-13.583</v>
@@ -34212,7 +34214,7 @@
         <v>42.05</v>
       </c>
       <c r="AC21" s="11">
-        <v>4.7E-2</v>
+        <v>46.46062306777646</v>
       </c>
       <c r="AD21" s="11">
         <v>-12.313000000000001</v>
@@ -35775,7 +35777,7 @@
         <v>32.33</v>
       </c>
       <c r="AC22" s="11">
-        <v>4.7E-2</v>
+        <v>46.894144757191462</v>
       </c>
       <c r="AD22" s="11">
         <v>-8.0120000000000005</v>
@@ -37354,7 +37356,7 @@
         <v>53.49</v>
       </c>
       <c r="AC23" s="11">
-        <v>4.7E-2</v>
+        <v>47.139500841278739</v>
       </c>
       <c r="AD23" s="11">
         <v>-15.663</v>
@@ -38935,7 +38937,7 @@
         <v>55.76</v>
       </c>
       <c r="AC24" s="11">
-        <v>4.8000000000000001E-2</v>
+        <v>47.75405129124821</v>
       </c>
       <c r="AD24" s="11">
         <v>-5.7919999999999998</v>
@@ -40514,7 +40516,7 @@
         <v>91.62</v>
       </c>
       <c r="AC25" s="11">
-        <v>4.9000000000000002E-2</v>
+        <v>48.19627046496398</v>
       </c>
       <c r="AD25" s="11">
         <v>-4.0389999999999997</v>
@@ -42073,7 +42075,7 @@
         <v>88.26</v>
       </c>
       <c r="AC26" s="11">
-        <v>0.05</v>
+        <v>49.602994561522777</v>
       </c>
       <c r="AD26" s="11">
         <v>-3.09</v>
@@ -43650,7 +43652,7 @@
         <v>111.33</v>
       </c>
       <c r="AC27" s="11">
-        <v>0.05</v>
+        <v>49.993904607922389</v>
       </c>
       <c r="AD27" s="11">
         <v>-4.6459999999999999</v>
@@ -45235,7 +45237,7 @@
         <v>140.96</v>
       </c>
       <c r="AC28" s="11">
-        <v>5.0999999999999997E-2</v>
+        <v>50.433661322360948</v>
       </c>
       <c r="AD28" s="11">
         <v>-6.54</v>
@@ -46818,7 +46820,7 @@
         <v>130.49</v>
       </c>
       <c r="AC29" s="11">
-        <v>5.0999999999999997E-2</v>
+        <v>50.861473676143767</v>
       </c>
       <c r="AD29" s="11">
         <v>-9.8350000000000009</v>
@@ -48369,7 +48371,7 @@
         <v>118</v>
       </c>
       <c r="AC30" s="11">
-        <v>5.1999999999999998E-2</v>
+        <v>51.9572906779661</v>
       </c>
       <c r="AD30" s="11">
         <v>-15.218</v>
@@ -49946,7 +49948,7 @@
         <v>65.989999999999995</v>
       </c>
       <c r="AC31" s="11">
-        <v>5.1999999999999998E-2</v>
+        <v>52.077114714350664</v>
       </c>
       <c r="AD31" s="11">
         <v>-25.466999999999999</v>
@@ -51537,7 +51539,7 @@
         <v>77.8</v>
       </c>
       <c r="AC32" s="11">
-        <v>5.2999999999999999E-2</v>
+        <v>52.346798200514137</v>
       </c>
       <c r="AD32" s="11">
         <v>-27.437000000000001</v>
@@ -53128,7 +53130,7 @@
         <v>83.97</v>
       </c>
       <c r="AC33" s="11">
-        <v>5.2999999999999999E-2</v>
+        <v>52.547645587709894</v>
       </c>
       <c r="AD33" s="11">
         <v>-10.43</v>
@@ -54683,7 +54685,7 @@
         <v>102.41</v>
       </c>
       <c r="AC34" s="11">
-        <v>5.2999999999999999E-2</v>
+        <v>53.097945513133482</v>
       </c>
       <c r="AD34" s="11">
         <v>-44.040999999999997</v>
@@ -56264,7 +56266,7 @@
         <v>101.66</v>
       </c>
       <c r="AC35" s="11">
-        <v>5.3999999999999999E-2</v>
+        <v>53.390236081054496</v>
       </c>
       <c r="AD35" s="11">
         <v>-19.821000000000002</v>
@@ -57847,7 +57849,7 @@
         <v>101.34</v>
       </c>
       <c r="AC36" s="11">
-        <v>5.3999999999999999E-2</v>
+        <v>53.664611209788831</v>
       </c>
       <c r="AD36" s="11">
         <v>-12.839</v>
@@ -59284,7 +59286,7 @@
         <v>101.53</v>
       </c>
       <c r="AC37" s="11">
-        <v>5.3999999999999999E-2</v>
+        <v>54.048037033389143</v>
       </c>
       <c r="AD37" s="11">
         <v>-6.6859999999999999</v>
@@ -60863,7 +60865,7 @@
         <v>84.8</v>
       </c>
       <c r="AC38" s="11">
-        <v>5.5E-2</v>
+        <v>54.730400943396226</v>
       </c>
       <c r="AD38" s="11">
         <v>-15.760999999999999</v>
@@ -62438,7 +62440,7 @@
         <v>72.989999999999995</v>
       </c>
       <c r="AC39" s="11">
-        <v>5.5E-2</v>
+        <v>54.824877380463079</v>
       </c>
       <c r="AD39" s="11">
         <v>-20.585000000000001</v>
@@ -64021,7 +64023,7 @@
         <v>79.12</v>
       </c>
       <c r="AC40" s="11">
-        <v>5.6000000000000001E-2</v>
+        <v>55.240037917087967</v>
       </c>
       <c r="AD40" s="11">
         <v>-18.776</v>
@@ -65614,7 +65616,7 @@
         <v>109.5</v>
       </c>
       <c r="AC41" s="11">
-        <v>5.6000000000000001E-2</v>
+        <v>55.390987214611876</v>
       </c>
       <c r="AD41" s="11">
         <v>-10.409000000000001</v>
